--- a/src/test/java/data/UserData.xlsx
+++ b/src/test/java/data/UserData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdelrahmanmubarak/Downloads/Title/src/test/java/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AF84DE-68F7-C748-974F-73B4557FBE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8FA0E5-0A7A-4340-A340-D59A2D85B266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="500" windowWidth="28160" windowHeight="16280" xr2:uid="{392EEB16-AE90-004F-8DA5-6550B1EFAFA7}"/>
+    <workbookView xWindow="320" yWindow="500" windowWidth="28160" windowHeight="16280" activeTab="1" xr2:uid="{392EEB16-AE90-004F-8DA5-6550B1EFAFA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Motazz</t>
   </si>
@@ -456,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC711624-095A-8649-ABD8-9BBA767DC36B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
@@ -530,4 +531,33 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A270B596-34A6-4C49-98DC-4FA6B055AA9C}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>98764534</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{B8312C69-063D-8141-9CAC-C8CB1842DB29}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/java/data/UserData.xlsx
+++ b/src/test/java/data/UserData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdelrahmanmubarak/Downloads/Title/src/test/java/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8FA0E5-0A7A-4340-A340-D59A2D85B266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB2648F-639C-4246-85C9-5BDA454BD8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="500" windowWidth="28160" windowHeight="16280" activeTab="1" xr2:uid="{392EEB16-AE90-004F-8DA5-6550B1EFAFA7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Register" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Motazz</t>
   </si>
@@ -73,13 +73,25 @@
   </si>
   <si>
     <t>RealDort34576@gmail.com</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -95,16 +107,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,14 +145,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -455,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC711624-095A-8649-ABD8-9BBA767DC36B}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
@@ -467,67 +523,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1">
+      <c r="D2" s="1">
         <v>12345678</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="1">
         <v>98764534</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="1">
         <v>12345678</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="1">
         <v>12345678</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{2CCA56A5-C478-D542-9BF8-775EC2FB8DEA}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{5CC7B18C-D3FB-DC46-8226-B84D2E65785C}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{CE9FA92F-8D34-7746-97A3-52A60A811293}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{54D77EF5-3D3D-AC44-B772-7B42B7429F03}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{2CCA56A5-C478-D542-9BF8-775EC2FB8DEA}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{5CC7B18C-D3FB-DC46-8226-B84D2E65785C}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{CE9FA92F-8D34-7746-97A3-52A60A811293}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{54D77EF5-3D3D-AC44-B772-7B42B7429F03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -535,28 +605,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A270B596-34A6-4C49-98DC-4FA6B055AA9C}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1">
+      <c r="B2" s="1">
         <v>98764534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>12345678</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{B8312C69-063D-8141-9CAC-C8CB1842DB29}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B8312C69-063D-8141-9CAC-C8CB1842DB29}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{F15A6D67-2934-954A-971B-8FA01F87EB91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/data/UserData.xlsx
+++ b/src/test/java/data/UserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdelrahmanmubarak/Downloads/Title/src/test/java/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB2648F-639C-4246-85C9-5BDA454BD8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0506FF0F-4D64-504F-817E-CA8C7F0FB3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="500" windowWidth="28160" windowHeight="16280" activeTab="1" xr2:uid="{392EEB16-AE90-004F-8DA5-6550B1EFAFA7}"/>
+    <workbookView xWindow="320" yWindow="500" windowWidth="28160" windowHeight="16280" xr2:uid="{392EEB16-AE90-004F-8DA5-6550B1EFAFA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Motazz</t>
   </si>
@@ -51,30 +51,12 @@
     <t>Ahmed</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Arabic</t>
-  </si>
-  <si>
-    <t>RealMadrid</t>
-  </si>
-  <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
-    <t>Motazznab9087@123@gmail.com</t>
-  </si>
-  <si>
     <t>Test778@test.xyz.com</t>
   </si>
   <si>
     <t>Englisharabic192@test.local</t>
   </si>
   <si>
-    <t>RealDort34576@gmail.com</t>
-  </si>
-  <si>
     <t>Firstname</t>
   </si>
   <si>
@@ -85,6 +67,12 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>Motazznvcvvvvbv@gmail.com</t>
+  </si>
+  <si>
+    <t>Tesvbgvbtb778@test.xyz.com</t>
   </si>
 </sst>
 </file>
@@ -165,7 +153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,6 +162,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -511,29 +508,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC711624-095A-8649-ABD8-9BBA767DC36B}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -543,8 +540,8 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>12345678</v>
@@ -557,47 +554,143 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>98764534</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
-        <v>12345678</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1">
-        <v>12345678</v>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{2CCA56A5-C478-D542-9BF8-775EC2FB8DEA}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{5CC7B18C-D3FB-DC46-8226-B84D2E65785C}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{CE9FA92F-8D34-7746-97A3-52A60A811293}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{54D77EF5-3D3D-AC44-B772-7B42B7429F03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -607,7 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A270B596-34A6-4C49-98DC-4FA6B055AA9C}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -618,15 +711,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>98764534</v>
@@ -634,7 +727,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>12345678</v>
